--- a/resources/correct.xlsx
+++ b/resources/correct.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="30">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -48,7 +48,7 @@
     <t xml:space="preserve">Physics </t>
   </si>
   <si>
-    <t xml:space="preserve">Iwaniec Joanna</t>
+    <t xml:space="preserve">Joanna Iwaniec</t>
   </si>
   <si>
     <t xml:space="preserve">2.41</t>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t xml:space="preserve">3.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giermek Bozena</t>
   </si>
   <si>
     <t xml:space="preserve">Simulation of Electronic Circuits</t>
@@ -242,19 +239,19 @@
   </sheetPr>
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E76" activeCellId="0" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.1740890688259"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="11.3562753036437"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="22.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="4" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="13.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -456,7 +453,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F9" s="4" t="n">
         <v>1</v>
@@ -499,10 +496,10 @@
         <v>0.416666666666667</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F11" s="4" t="n">
         <v>1</v>
@@ -522,10 +519,10 @@
         <v>0.520833333333333</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>1</v>
@@ -545,10 +542,10 @@
         <v>0.604166666666667</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F13" s="4" t="n">
         <v>1</v>
@@ -568,10 +565,10 @@
         <v>0.458333333333333</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F14" s="4" t="n">
         <v>2</v>
@@ -591,10 +588,10 @@
         <v>0.534722222222222</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F15" s="4" t="n">
         <v>2</v>
@@ -614,10 +611,10 @@
         <v>0.725694444444444</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>2</v>
@@ -637,10 +634,10 @@
         <v>0.416666666666667</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>3</v>
@@ -660,10 +657,10 @@
         <v>0.618055555555556</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>3</v>
@@ -683,16 +680,16 @@
         <v>0.75</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="F19" s="4" t="n">
         <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,10 +703,10 @@
         <v>0.75</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="4" t="n">
         <v>1</v>
@@ -824,7 +821,7 @@
         <v>17</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="4" t="n">
         <v>2</v>
@@ -922,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,10 +933,10 @@
         <v>0.416666666666667</v>
       </c>
       <c r="D30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>1</v>
@@ -959,10 +956,10 @@
         <v>0.520833333333333</v>
       </c>
       <c r="D31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F31" s="4" t="n">
         <v>1</v>
@@ -982,10 +979,10 @@
         <v>0.729166666666667</v>
       </c>
       <c r="D32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F32" s="4" t="n">
         <v>1</v>
@@ -1005,10 +1002,10 @@
         <v>0.458333333333333</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F33" s="4" t="n">
         <v>2</v>
@@ -1028,10 +1025,10 @@
         <v>0.552083333333333</v>
       </c>
       <c r="D34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F34" s="4" t="n">
         <v>2</v>
@@ -1051,10 +1048,10 @@
         <v>0.725694444444444</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35" s="4" t="n">
         <v>2</v>
@@ -1074,10 +1071,10 @@
         <v>0.416666666666667</v>
       </c>
       <c r="D36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F36" s="4" t="n">
         <v>3</v>
@@ -1097,10 +1094,10 @@
         <v>0.479166666666667</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F37" s="4" t="n">
         <v>3</v>
@@ -1120,10 +1117,10 @@
         <v>0.618055555555556</v>
       </c>
       <c r="D38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>3</v>
@@ -1143,10 +1140,10 @@
         <v>0.416666666666667</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F39" s="4" t="n">
         <v>1</v>
@@ -1166,10 +1163,10 @@
         <v>0.4375</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F40" s="4" t="n">
         <v>2</v>
@@ -1235,10 +1232,10 @@
         <v>0.583333333333333</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F43" s="4" t="n">
         <v>2</v>
@@ -1281,10 +1278,10 @@
         <v>0.666666666666667</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F45" s="4" t="n">
         <v>3</v>
@@ -1304,16 +1301,16 @@
         <v>0.75</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F46" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1373,10 +1370,10 @@
         <v>0.416666666666667</v>
       </c>
       <c r="D49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F49" s="4" t="n">
         <v>1</v>
@@ -1396,10 +1393,10 @@
         <v>0.520833333333333</v>
       </c>
       <c r="D50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F50" s="4" t="n">
         <v>1</v>
@@ -1419,10 +1416,10 @@
         <v>0.770833333333333</v>
       </c>
       <c r="D51" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F51" s="4" t="n">
         <v>1</v>
@@ -1442,10 +1439,10 @@
         <v>0.458333333333333</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F52" s="4" t="n">
         <v>2</v>
@@ -1465,10 +1462,10 @@
         <v>0.552083333333333</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F53" s="4" t="n">
         <v>2</v>
@@ -1488,10 +1485,10 @@
         <v>0.725694444444444</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F54" s="4" t="n">
         <v>2</v>
@@ -1511,10 +1508,10 @@
         <v>0.416666666666667</v>
       </c>
       <c r="D55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F55" s="4" t="n">
         <v>3</v>
@@ -1534,10 +1531,10 @@
         <v>0.479166666666667</v>
       </c>
       <c r="D56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>3</v>
@@ -1557,10 +1554,10 @@
         <v>0.618055555555556</v>
       </c>
       <c r="D57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="F57" s="4" t="n">
         <v>3</v>
@@ -1626,10 +1623,10 @@
         <v>0.4375</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F60" s="4" t="n">
         <v>2</v>
@@ -1698,7 +1695,7 @@
         <v>17</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F63" s="4" t="n">
         <v>2</v>
@@ -1741,10 +1738,10 @@
         <v>0.666666666666667</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F65" s="4" t="n">
         <v>3</v>
@@ -1767,7 +1764,7 @@
         <v>17</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F66" s="4" t="n">
         <v>1</v>
@@ -1833,10 +1830,10 @@
         <v>0.520833333333333</v>
       </c>
       <c r="D69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F69" s="4" t="n">
         <v>1</v>
@@ -1856,10 +1853,10 @@
         <v>0.729166666666667</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F70" s="4" t="n">
         <v>1</v>
@@ -1902,10 +1899,10 @@
         <v>0.552083333333333</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F72" s="4" t="n">
         <v>2</v>
@@ -1925,10 +1922,10 @@
         <v>0.725694444444444</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F73" s="4" t="n">
         <v>2</v>
@@ -1948,10 +1945,10 @@
         <v>0.416666666666667</v>
       </c>
       <c r="D74" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F74" s="4" t="n">
         <v>3</v>
@@ -1971,10 +1968,10 @@
         <v>0.479166666666667</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F75" s="4" t="n">
         <v>3</v>
@@ -2025,7 +2022,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2051,7 +2048,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
